--- a/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,54 +52,36 @@
     <t>400419</t>
   </si>
   <si>
-    <t>Greg Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. If we could go ahead and get started, I am going to call to order the Subcommittee on Communications and Technology, with apologies up front that with the classified briefing that got scheduled at the end of last week for later today on the Iranian agreement--that got scheduled about the same time this hearing was originally scheduled to start, so we moved it up to now so that we could hear from this distinguished panel of witnesses.    And I have asked my colleagues--and I think this is on both sides, because we also now have votes scheduled prior to all of that--we are going to dispense with our opening statements, which anybody who watches Congressional hearings knows is unprecedented in the historical annals of Congress, but they will all be in the official record.    So unless there is objection from either side of the aisle, I would like to just proceed straight to our panel of witnesses for their expert testimony.    This is an important hearing on promoting broadband infrastructure investment. You all are on the front lines of that, and we look to you for guidance, suggestions as we go forward.    [Members' prepared statements appear at the conclusion of the hearing.]    So we will start right out with Jonathan Adelstein, President and CEO, PCIA, former distinguished Commissioner of the Federal Communications Commission.    Mr. Adelstein, we are delighted to have you here. Please go ahead with your testimony.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Adelstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Adelstein. The committee has shown leadership on this issue over many years. We appreciate the opportunity to testify at such a critical hearing today.    As you said, I run PCIA. We represent the companies that build, design, own and manage telecommunications facilities around the world and in the United States. The members include wireless carriers, infrastructure providers, equipment manufacturers, and professional services firms. Our mission is to expand wireless broadband to everywhere, helping our members provide wireless facilities to meet consumers' growing mobile data needs any time, any place.    The wireless infrastructure industry, as you know, plays an essential role in meeting that data demand that people are asking for so much of. Put simply, infrastructure makes wireless work. It enables the delivery of innovative applications and life-changing services like telemedicine and distance learning. Wireless infrastructure is a catalyst for economic growth and job creation. A PCIA study found that investments in our industry will generate $1.2 trillion--that is trillion with a T--in economic growth and create 1.3 million new jobs over 5 years.    And this committee, as I said, has shown grown leadership, Mr. Chairman. You have done so much to try to eliminate barriers to infrastructure deployment. I commend you, and our industry is thrilled with the leadership of this committee. Most notably, section 6409(a) of the Spectrum Act of 2012 has had a real impact on the ground in speeding the deployment of 4G infrastructure. It eliminated major local regulatory barriers to upgrading existing wireless infrastructure, and the FCC, I might add, has done an outstanding job on a bipartisan basis of implementing that law with a clear framework of rules.    Now, we will face major challenges. Cisco projects that demand for wireless data is going to increase by about 700 percent over the next 5 years, and the question is how we are going to meet that exploding demand for data.    Now, one way is more spectrum, as much as we can get as fast as we can get it. And again, this committee has done great work on that front. Spectrum, as you know, is expensive, scarce, and takes a long time to get into actual use by consumer, all the more reason to move quickly.    Another way to increase data throughput is technological advances that foster greater spectral efficiencies like moving from 2G to 4G and beyond, and the networks themselves are getting smarter, directing capacity where it is needed. These advances also take time to develop and to implement.    A third way to meet the exploding demand for data is through the rapid deployment of infrastructure. Wireless infrastructure driven by private capital addresses the wireless data crunch as soon as it is deployed. Solutions range from traditional tall towers that provide wide coverage and capacity to small cells and distributed antenna systems that fill gaps in capacity and target high-traffic areas, intensifications of networks reused as existing scarce spectrum. Deploying more antennas closer to end users allows carriers to squeeze more out of existing spectrum.    Now, there is still resistance to siting this equipment where it is necessary, and Congress can help even more to remove these barriers. One way is by streamlining the process of siting wireless infrastructure on Federal lands. Despite the law enacted by Congress with the leadership of this committee and an Executive Order by the President, significant challenges remain on Federal property. Further legislation is needed to facilitate access to Federal lands to expand broadband coverage and increased deployment in rural areas.    PCIA supports S. 1618, which was recently introduced in the Senate to address this issue, and we look forward to continuing to work with this committee on developing legislation as well. Additional roadblocks remain despite the assistance this committee has provided. For example, some State and local entities require proof of need before authorizing infrastructure bills. These requirements are both illogical and costly. Local communities shouldn't be in the CTO business of deciding where services are needed. Our members invest their capital where it is needed to serve consumers and local governments aren't in a good position to be second-guessing these kind of technical questions. Continued efforts to harmonize the rates for pole attachments would also help promote broadband investment.    The FCC has taken important steps to provide greater access, timing, and fair rates. States that regulate their own poles should follow the FCC's lead.    In sum, wireless infrastructure boosts every sector of the economy. Mobile broadband is demonstrating its effectiveness in promoting economic growth, job creation, and global competitiveness yet challenges remain in reaching its full potential. Policymakers from Congress to local governments need to eliminate regulatory barriers so our industry can invest their capital without resistance and not add costs and delays that will slow the rollout of wireless broadband.    Our member companies are very grateful for the bipartisan recognition of the centrality of wireless infrastructure by this committee, by Congress, by the administration, and by the     I would add that we look forward to making continued progress together on some of the ideas we have laid out here today and other panels will share, and we thank you, and thank you, Ranking Member Eshoo, for joining us, and thank you for holding this hearing to address these urgent issues.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Mr. Adelstein. We appreciate your testimony and look forward to further discussions on these matters.    We will now go to the Honorable Stephen Roe Lewis, Governor, Gila River Indian Community in Arizona. Governor, we are delighted to have you here. I enjoyed the time I was in your community and toured your facilities, and we are glad you could be here to share your thoughts on the challenges you face.</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lewis. Thank you, Chairman Walden and members of the committee. Thank you for the opportunity to testify on behalf of the Gila River Indian Community. I also want to again thank Chairman Walden and Mr. Lujan for visiting the community, as you just heard, to see firsthand the obstacles that tribes face in deploying broadband. And I want to thank Ranking Member Eshoo and Mr. Lujan for their request to have the Government Accounting Office, the GAO, look into the challenges and barriers to deployment on tribal lands.    Our broadband provider is Gila River Telecommunications Incorporated, which we refer to as GRTI. It was founded in 1988 and is wholly owned by our community. Our reservation is approximately 372,000 acres. We have more than 20,000 members and almost 12,000 community members living on our reservation. When we first purchased the exchange from Mountain Bell in 1988, only 10 percent of our residents had access to basic phone service. More, those looking to get connected had to pay tens of thousands of dollars before Mountain Bell would install a party line connection.    Today, GRTI offers phone service to 100 percent of our residents, and 84 percent of the residents subscribe. We also offer broadband service across the reservation. We are very proud of GRTI's success.    GRTI along with the National Tribal Telecommunications Association work together to raise awareness about the unique challenges for deploying broadband on tribal lands. Tribal lands are the least served areas in the country. Approximately 48 percent of tribal lands in the lower 48 States lack access to speeds of 10 down, one up, and 68 percent lack access to 25 down, 3 up.    There are a number of obstacles that present challenges to broadband deployment on tribal lands, and I have set those out with more detail in my written testimony, but I would like to summarize them for you here.    First, population density is an obstacle. The Gila River, for example, is at 20 persons per square mile. Maricopa County, which is adjacent to the reservation, has approximately 414 persons per square mile. Rugged terrain, characterized by mountains and hard soil, is also typical of tribal lands. Low median income and high rates of poverty on most reservations present a severe challenge for the delivery of broadband. The median income on our reservation is $24,000 to $59,000 in Arizona. Approximately 48 percent of the persons living on the reservation live below the poverty level compared to 15 percent for Arizona. These economic circumstances are not unique to our tribal community.    Failed Federal policies from the past continue to negatively impact many tribes. Our community and others like it continue to struggle with the failed policy of allotment. Because of the allotment policy, obtaining rights-of-way in order to deploy broadband is complex and raises costs substantially and delays deployment.    Finally, access to capital is a barrier. Tribal lands cannot be leveraged as collateral for securing loans because they are held in trust by the United States for the benefit of the tribe. Thus, private capital is often not available, meaning the only lender available is the Federal Government, specifically, the Rural Utilities Service. RUS loans were critical to GRTI when it took over its service area and remains critical as a Warms Springs tribe in Oregon can attest.    The combination of these challenges has resulted in GRTI's average cost per loop being over $2,873. Because tribal nations face many unique challenges, we often need unique solutions. Having tribes at the table and engaging in Government-to-Government consultation is critical. Too often, Federal policies have unintended consequences on tribes because we weren't properly consulted in the beginning.    The current effort to reform the Universal Service Fund is a good example. USF is, when properly scoped, a critically important source of funding that can help make it possible to deploy broadband to our reservations.    Tribes have offered a proposal that will target specific support to tribal lands through a Tribal Broadband Factor that could be added to proposals for a standalone broadband fund. Inclusion of this Tribal Broadband Factor would promote the targeted use of Universal Service Funding to advance the policy objective of ensuring that broadband is made available to all Americans including those living on tribal lands.    The FCC's Office of Native American Affairs and Policy has been a welcome addition to the Commission's outreach efforts to ensure that tribes are included in the development of proposals to deploy more broadband but sometimes the FCC forgets about tribes. That is why we appreciate the letter sent to the FCC from a broadband group of members of this committee, reminding the commission that tribal leaders need a seat at the table.    I appreciate the opportunity to speak with you today and hope to be an ongoing resource for the committee. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Governor. You can count on that. We appreciate your testimony and your insights. They are very valuable.    We will go now to Craig Moffett, Senior Research Analyst, Moffett Nathanson. Mr. Moffett, we are delighted to have you here as well. Please go ahead.</t>
   </si>
   <si>
-    <t>Moffett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moffett. Thank you, members of the subcommittee, for your kind invitation to participate in today's hearing.    By way of introduction, I have been a financial analyst focusing on the cable and telecommunications industries for the past 14 years. Before that, I spent 11 years at the Boston Consulting Group advising telecommunications companies, so this is now my 25th year in the sector, and I have spent much of that career focused on issues of broadband deployment and microeconomics.    With that in mind, I thought I would share some general observations today about the economics of broadband, particularly focusing on the economics of competitive broadband.    First, I would start by saying the obvious. Infrastructure deployment requires the expectation of a healthy return on capital. That should be taken as a given but all too often in my experience, the issue of return on capital is either ignored or misunderstood in policy forums. It is not a matter of whether a business is or isn't profitable; it is instead a matter of whether a business is sufficiently profitable to warrant the high levels of capital investment required for the deployment of infrastructure.    With that in mind, in 2014, the largest companies in the cable industry earned a very healthy return. The physical assets of Comcast, Time Warner Cable, Charter, and Cablevision, the four publicly traded U.S. cable operators during 2014, all earned healthy returns in excess of their cost of capital with returns ranging from 13 to 33 percent. Those returns are unusually high for a capital-intensive industry. On the other hand, it should be noted that the cable industry earned returns below the cost of capital for decades. Any long-term return on network infrastructure has to earn returns well in excess of the cost of capital during the maturity of that network to offset what were typically years or even decades of losses.    By contrast, large incumbent telephone companies do not earn attractive returns on their wireline businesses. For example, a decade after first undertaking their FiOS fiber to the home buildout to 18 million homes, Verizon has not yet come close to earning a return in excess of their cost of capital. In 2014, their aggregate wired infrastructure business earned a paltry 1.2 percent return against a cost of capital of 5 percent. For the nonfinancial types in the room, that is the equivalent of borrowing money at 5 percent interest in order to earn 1 percent interest. That is a good way to go bankrupt. No one would undertake to replicate those disastrous financial returns.    AT&amp;T, which at around the same time began deploying a much less robust and therefore less costly fiber to the node network has also earned poor returns. Their ROIC, or return on invested capital, has been declining for a decade and is like Verizon well below the cost of capital. AT&amp;T is committed to the FCC to make fiber available to a total of, I know believe it is 12 \\1/2\\ million homes as of what was reported last night to their footprint in order to make their acquisition of DIRECTV more palpable to policymakers, but it is hard to be optimistic that they will do much better this time around.    That said, there have been some changes in the market that make deployment of competitive broadband networks less unattractive than they have been in the past. Corning has developed bendable fiber that has helped lower the labor cost of deployment. Google has popularized the concept of demand aggregation whereby communities pledge to subscribe to advanced network services before the network is built so that Google can target areas where the company has the best chance of earning an acceptable return, and while some critics would call that redlining as it typically means that broadband won't be built to the lower-income communities, it has been successful in boosting overall project returns, and you can think of it as a way of ensuring that all the children in the class really are above average.    Still, the broader takeaway here is that the returns to be had from overbuilding, that is, being the second or third broadband provider in a given market are generally poor.    So let that sink in for a moment. Simply stated, it means that market forces are unlikely to yield a fully competitive broadband market. Neither, by the way, does wireless appear to offer the promise of imminent competition for incumbent wired broadband providers. Wireless networks simply aren't engineered for the kind of sustained throughout required for wired broadband replacement services. And wireless networks, by the way, also generally earn relatively poor returns on capital. Returns for Verizon and AT&amp;T are middling, and for Sprint and T-Mobile are very poor as a consequence of aggressive price competition in the wireless market. Neither is satellite broadband a compelling replacement for wired broadband in any but the most rural areas. Costs are high, and it is the nature of satellite connection that it has to travel 22,000 miles and back such that latency is going to be a problem.    So the simple economic reality is that overbuilding is necessarily going to be somewhat limited, given relatively poor financial returns that can be expected, and that alternatives are far and few between. That naturally gives rise to the impulse among some to regulate incumbent networks that are already there. That is, it is a not unreasonable assumption that any attempts to foster competition will ultimately be unsuccessful and that regulation of incumbents, in this case, the cable operators, is therefore required.    The counterargument, that regulation will only stifle investment among incumbent providers and will therefore make the problem worse and will in the process generate unwelcome, unintended consequences is equally well intentioned and unfortunately is equally well supported by the historical evidence. That is to say there are no easy answers here.    I will conclude only by adding a few additional observations about the cable industry. As everyone understands, the cable video business is facing unprecedented pressure. Cord-cutting has been talked about for years but is finally starting to show up in a meaningful way in the numbers, and soaring programming costs are eating away at video profit margins. From a cable operator's perspective, the video business and the broadband business are opposite sides of the same coin. It is, after all, all one infrastructure. Pressure on the video profit pool will therefore naturally trigger a pricing response in broadband where cable operators have cable leverage. That may sound nefarious but it's not intended to be so. It is simply an observation that cable operators have historically benefited from the fact that their infrastructure can support two separate businesses and each can be delivered at a lower cost than if that were not the case. The ACA, or American Cable Association, has made this case eloquently in arguing that absent reforms to restrain runaway programming cost growth, video will be unprofitable and broadband will be left to carry the entire burden of incremental deployment. All else being equal, that will mean that even new builds of broadband will become increasingly economically challenged and therefore will become less and less likely, or as I am quick to add, this is my own editorial rather than ACA's point, they will simply have to sharply raise the price of broadband. As an analyst, I would simply observe that the pressures in the video business are relatively broad-based and are attributable to more than just programming cost inflation and that this may therefore be an unavoidable scenario.    So I will leave my remarks there. If my remarks sound excessively gloomy, they are not meant to. The U.S. broadband infrastructure is the envy of the world notwithstanding my view that there are politicized and cherry-picked statistics that would suggest otherwise. It is simply the case that broadband is an infrastructure that is very difficult to support two of, and in some cases even one of, and I would submit that a clear-eyed acknowledgement of the microeconomics of the broadband business deserves or even demands a seat at the policy table.    So thank you, Mr. Chairman and subcommittee members, for your time and the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you very much, Mr. Moffett. We appreciate your analysis.    We will go now to Michael Slinger, Director, Google Fiber Cities. We welcome you. Thank you for being here, and the floor is yours.</t>
   </si>
   <si>
-    <t>Slinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Slinger. Chairman Walden, Ranking Member Eshoo, and members of the committee, thank you for the invitation to testify today about investment in broadband infrastructure. We believe a successful agenda for bandwidth abundance will benefit consumers, small businesses, and the economy.    My name is Michael Slinger, and I currently serve as the Director of Google Fiber City Teams. In this role, I oversee the operations, business strategy, and on-the-ground outreach to bring gigabit speeds to cities where we deploy Google Fiber across the United States.    We have long believed that the next chapter of the Internet would be built on gigabit speeds. A gig delivers enough bandwidth for everyone in the home or in a small business for all their devices, and we know fast connections unleash innovation and entrepreneurship. Think about it in these terms: if today we are riding a bike, having a gig means that we could be driving a racecar. It is just that much faster.    That is why we launched Google Fiber, which provides download and upload connections of up to 1,000 megabits per second. Our goal is to make the Web faster, more affordable, more relevant and more useful for everyone.    We launched the service 5 years ago, and today it is available in Kansas City, Kansas; Kansas City, Missouri; Austin, Texas; and Provo, Utah. In addition, we are in the process of building out our network in six other markets and we are exploring bringing it to another four on top of that.    In rolling out Google Fiber, we physically built a network from scratch--one street, one pole, one house at a time. This means reviewing infrastructure and working closely with cities to make sure we are ready to work together to design and build a brand-new network.    This experience has given us insight into barriers to deployment. I will outline some thoughts on policy changes that could reduce delays and barriers.    First, policymakers can ease gaining access to existing infrastructure. To construct high-speed networks, broadband providers need access to existing utility infrastructure such as poles, conduits on a consistent, cost-effective and timely basis. While the FCC has taken important steps to improve rules related to infrastructure access, our own experience in building new broadband networks demonstrates that more work needs to be done to reduce delays and barriers.    Second, policymakers can easy rights-of-way. The expense and complexity of obtaining access to public rights-of-way in some jurisdictions may increase the cost and slow the pace of broadband deployment. Policies that facilitate partnerships between different entities and companies that are doing local construction can be beneficial. We also see a lot of benefit in instituting ``dig once'' policies, which may involve the installation of an oversized conduit bank by any new network builder within the right-of-way.    Third, policymakers can help resolve the challenge of high rates for access to video programming. This would help smaller players in the business negotiate fair terms for access to popular broadcasts and cable content and make it easier to attract and retain subscribers for broadband networks.    Finally, I would be remiss if I failed to mention the importance of balanced spectrum policies that promote innovation in the wireless sector. Federal agencies should pursue a balanced approach to spectrum reallocation that allows for licensed and unlicensed commercial uses at a variety of frequencies.    I will note, as we think about deploying gigabit-speed networks, we need to keep in mind that about 30 percent of Americans still don't use the Internet at home. This means they are at a disadvantage when it comes to education, job opportunities, social and civic engagement, so one of our main priorities is building digital inclusion into our deployment plans from the beginning. We are guided by a couple of main principles: Make the Internet more affordable, make access a party of the community, and teach people how to get online.    Just last week, as part of the Connect Home Initiative announced by President Obama and HUD Secretary Castro, we committed to bringing our Google Fiber Internet service to residents in select affordable housing properties across our Fiber cities for zero dollars per month with no installation fee. We are also partnering with community organizations on computer labs and digital literacy programming. We are grateful for the partners we get to work with to get more people connected and for your attention to this important topic.    Thank you again for the invitation to speak at this hearing and to share our views on how we can remove barriers, give Americans more choices at higher speeds, and help reach the goal of nationwide broadband abundance.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Mr. Slinger. We appreciate your testimony.    And now we will go to final witness today, Deb Socia, Executive Director, Next Century Cities. We are delighted to have you here as well. Thank you, and please go ahead with your comments.</t>
   </si>
   <si>
-    <t>Socia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Socia. Good afternoon. Thank you for holding this hearing on such an important topic.    My name is Deb Socia, and I am the Executive Director of Next Century Cities, a bipartisan city-to-city collaborative formed just last October. We have already grown to over 100 member cities, all of whom are dedicated to ensuring access to fast, affordable and reliable broadband.    High-speed access is essential to America's economic future. It is as simple as that. What can be complicated is making it happen on the ground. Cities face a range of technical, economic and political challenges including obstacles at the State and Federal levels. More and more, providing for this critical need has emerged as a core responsibility for local governments. Many cities and towns from around the country are taking diverse and creative steps to secure their Internet future.    When it comes to providing access to high-quality Internet, everyone has a role to play. It is an issue that spans political party, an issue that crosses the urban-rural divide, and an issue that relies on many sectors of our society.    There is no single pathway to next-generation broadband network, and several of the most innovative solutions have emerged in unexpected places. The small towns of Ammon, Idaho, and Mount Vernon, Washington, have each developed a gigabit open access network. These local governments are directly involved in building the physical infrastructure and then leasing access to competing private providers. Just outside of Baltimore, Westminster, Maryland, has initiated a public-private partnership with Ting, a provider of fiber Internet service, and with the introduction of Google Fiber in Kansas City, residents there can now experience giga-level speeds at an affordable rate. Cities like Lafayette, Louisiana, and Chattanooga, Tennessee, have built their own networks and now have some of the fastest, most globally competitive access available.    Next Century Cities is dedicated to helping all communities achieve high-quality access regardless of the path they choose to pursue. Our membership represents an inclusive cross-section of America from small, rural communities such as Winthrop, Minnesota, to large, urban areas like L.A. and Boston.    What unites these mayors is a commitment to the imperative of broadband access for continued growth and an understanding that local governments are best situated to understand and provide for the needs of their residents. It is an exciting time, a time for creative local solutions to usher in a new generation of innovation as the Internet continues to transform all aspects of society.    Next Century cities recently developed a policy agenda showing how mu stakeholders can help communities develop the crucial infrastructure needed today. Consistent with our mission, this new resource provides guidance that will be useful to communities regardless of how they choose to pursue their broadband goals.    Part of the policy agenda looks at steps local and State government can use to ensure high-quality access. Locally, governments can institute ``dig-once'' policies that minimize disruption as well as take other steps to ensure their cities are fiber ready.    At the State level, the policy agenda addresses changes such as modernizing State regulations and making investments in the middle mile infrastructure. But we are here on Capitol Hill today, and I wanted to emphasize some recommendations we heard from mayors about steps the Federal Government could take to help empower local communities. First and foremost, Congress can encourage competitive local markets through national legislation and other avenues. In addition, you have the ability to provide a national platform for the issue of broadband as necessary infrastructure. Hearings such as this help to elevate this discussion and attract national attention to this critical issue.    And finally, the policy agenda discusses how Congress could better require information about available Internet access including speed of connection, price for consumers, and areas of operation for service providers.    As is clear from everything we have heard so far today, the need for fast, affordable and reliable broadband Internet access is undeniable. Innovative leaders in communities across the country recognize this urgent need and are developing the critical broadband infrastructure that will allow their residents and their cities to thrive. It is evident by the over 100 Next Century Cities I am speaking on behalf of today, communities that represent over 18 million Americans.    Thank you for providing this platform for communities to share their experiences and develop opportunities for collaboration with Federal policymakers. I look forward to working with members of this committee and your colleagues to ensure that communities across the country have the next-generation access that all Americans need and deserve.    Thank you.</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t>400124</t>
   </si>
   <si>
-    <t>Anna G. Eshoo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you, Mr. Chairman, first of all for having this hearing and for the high level of cooperation relative to witnesses and invitations. We appreciate it.    Jonathan, it is great to see you, former Commissioner at the FCC, and to everyone that accepted our invitation to be here today.    To Mr. Slinger and Ms. Socia, first of all, thank you for your important advocacy for the ``dig once'' policy. I wish that the Congress had passed it because I think that we would have more of that policy actually--excuse the expression--embedded in our Federal roadways, but how do you think, A, the Executive Order is working? I want to get my questions out first, OK, because the time is very brief, and if you think there are any additional steps that Congress should take to incent that deployment of conduit as part of the Federal highway projects and that system, which I don't know, right now it doesn't seem like the highway project system is going anywhere. It looks like it is being driven off the road in Congress. But anyway, here maybe we can concentrate on that.    Mr. Moffett, I listened very carefully to what you said, and I think it is really highly pessimistic. It was depressing to listen to your description of every last sector of the telecommunications marketplace, and my question to you would be, where do you see a bright spot?    To Governor Lewis, thank you for being here. You know, there was a report that just came in out of terms of broadband penetration in our country. We are 24th in the world. And I think that a good part of that number is a representation of Native Americans and reservations in our country. It is a shameful record. It is a shameful record. And I think if there is going to be something that moves up to the top of the list here in a bipartisan way is to see that we bring to the parts of the country where there are reservations that you get first-class service for first-class citizenship. You really do. I mean, for students to have to be driven by their parents 65 and 75 miles away to sit in the car in order to get some kind of connection to do their homework, I don't think any Member of Congress who is a parent here would ever put up with that. We shouldn't have that in our country. And I hope that Mr. Slinger and Governor Lewis will form a partnership and then come back and report to us. I would really like to have you meet and see what you can come up with because you both need each other and we need both of you.    To Ms. Socia, does Next Century Cities support having local municipal systems?</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Thanks, Mr. Chairman, and thanks very much to our panel today. It is always a great discussion that we have in subcommittee.    Mr. Adelstein, if I could go back to some of the questions that the chairman was posing and also I think you said about the GSA dragging its feet in getting some of these things done, especially when we are talking about streamlining the process for providers to obtain the necessary permitting and other approvals needed to build on Federal lands and protected lands. Just out of curiosity, on average, how long does it take for a negotiation process with the Federal Government compared to the private industry? Any idea?</t>
   </si>
   <si>
@@ -247,9 +223,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to get one question in to Mr. Adelstein about infrastructure during disasters like Hurricane Sandy, but then I want to get a question in to Governor Lewis, so I am trying to split this up.    Three years ago, Hurricane Sandy devastated my district. The force of the storm knocked out some communication for days. Mr. Adelstein, you testified about all the wireless infrastructure that is being deployed and upgraded across the country, and I support all this deployment, but my constituents are also concerned about whether the equipment works in a disaster.    So what is your industry doing to make sure people can call for help and reach loved ones in an emergency, and what do you think of the FCC's work to improve resiliency?</t>
   </si>
   <si>
@@ -295,9 +268,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman. It is a great panel. I appreciate you all being here.    I want to go to Adelstein, Commissioner, and Governor Lewis real quick to highlight the challenges because especially the environmental review process, especially on Federal lands, is a burden. So have you thought through how local municipalities and they do their zoning outside of Federal lands and how we could marry that with which goes on there and can you comment on that?</t>
   </si>
   <si>
@@ -349,9 +319,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman. Thank you for this excellent hearing and this excellent panel.    Jonathan, welcome back.</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t>412261</t>
   </si>
   <si>
-    <t>Steve Scalise</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scalise. Thank you, Mr. Chairman. I appreciate you having this hearing.    Mr. Adelstein, I know you talked in your opening statement about a lot of the work that has been done to expand spectrum, of course, a lot of that within this committee where we have come together to make more spectrum available. I know the chairman has been a great leader in that effort too.    One part of that equation absolutely is expanding more spectrum, and then of course, the other part of that is your members--where you all come to actually build it out and to build that infrastructure to take advantage of the new spectrum. If you could maybe share with us some of the challenges or hurdles that your members face to make the investment that they need to make to take advantage of that spectrum and hopefully even make more spectrum available in the marketplace?</t>
   </si>
   <si>
@@ -446,9 +410,6 @@
   </si>
   <si>
     <t>400663</t>
-  </si>
-  <si>
-    <t>Doris O. Matsui</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Matsui. Yes, just a minute or two.</t>
@@ -868,11 +829,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -892,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -920,11 +877,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -944,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -972,11 +925,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -996,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1024,11 +973,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1048,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1076,11 +1021,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1100,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1128,11 +1069,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1152,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1180,11 +1117,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1204,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1232,11 +1165,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1256,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1284,11 +1213,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1308,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1336,11 +1261,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1360,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1388,11 +1309,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1412,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1440,11 +1357,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1464,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1490,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1516,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1542,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1568,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1594,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1620,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1646,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1672,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1700,11 +1597,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1724,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1750,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1776,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1802,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1828,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1854,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1880,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1906,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1932,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1958,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1984,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2010,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2036,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2062,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2088,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2114,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2140,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2166,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2192,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2220,11 +2077,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2244,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2270,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2296,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2322,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2348,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2374,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2400,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2426,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2452,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>77</v>
-      </c>
-      <c r="H63" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2478,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2504,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2530,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2556,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2584,11 +2413,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2608,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2634,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2660,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2686,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2712,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2738,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2764,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2792,11 +2605,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2816,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>92</v>
-      </c>
-      <c r="G77" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2842,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2868,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2894,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2920,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2946,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2972,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3000,11 +2797,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3024,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3050,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3076,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3102,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3128,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
-      </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3154,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3180,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3206,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3232,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3260,11 +3037,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3284,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3310,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3338,11 +3109,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3362,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3388,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3414,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3442,11 +3205,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3466,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3492,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3518,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3544,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3570,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3596,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3622,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
-      <c r="H108" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3648,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3674,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3702,11 +3445,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3728,11 +3469,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3754,11 +3493,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3778,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
-      </c>
-      <c r="G114" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3806,11 +3541,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3830,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G116" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3856,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3882,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" t="s">
-        <v>144</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3910,11 +3637,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3936,11 +3661,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,36 +55,57 @@
     <t>400419</t>
   </si>
   <si>
+    <t>Walden</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walden. If we could go ahead and get started, I am going to call to order the Subcommittee on Communications and Technology, with apologies up front that with the classified briefing that got scheduled at the end of last week for later today on the Iranian agreement--that got scheduled about the same time this hearing was originally scheduled to start, so we moved it up to now so that we could hear from this distinguished panel of witnesses.    And I have asked my colleagues--and I think this is on both sides, because we also now have votes scheduled prior to all of that--we are going to dispense with our opening statements, which anybody who watches Congressional hearings knows is unprecedented in the historical annals of Congress, but they will all be in the official record.    So unless there is objection from either side of the aisle, I would like to just proceed straight to our panel of witnesses for their expert testimony.    This is an important hearing on promoting broadband infrastructure investment. You all are on the front lines of that, and we look to you for guidance, suggestions as we go forward.    [Members' prepared statements appear at the conclusion of the hearing.]    So we will start right out with Jonathan Adelstein, President and CEO, PCIA, former distinguished Commissioner of the Federal Communications Commission.    Mr. Adelstein, we are delighted to have you here. Please go ahead with your testimony.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Adelstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Adelstein. The committee has shown leadership on this issue over many years. We appreciate the opportunity to testify at such a critical hearing today.    As you said, I run PCIA. We represent the companies that build, design, own and manage telecommunications facilities around the world and in the United States. The members include wireless carriers, infrastructure providers, equipment manufacturers, and professional services firms. Our mission is to expand wireless broadband to everywhere, helping our members provide wireless facilities to meet consumers' growing mobile data needs any time, any place.    The wireless infrastructure industry, as you know, plays an essential role in meeting that data demand that people are asking for so much of. Put simply, infrastructure makes wireless work. It enables the delivery of innovative applications and life-changing services like telemedicine and distance learning. Wireless infrastructure is a catalyst for economic growth and job creation. A PCIA study found that investments in our industry will generate $1.2 trillion--that is trillion with a T--in economic growth and create 1.3 million new jobs over 5 years.    And this committee, as I said, has shown grown leadership, Mr. Chairman. You have done so much to try to eliminate barriers to infrastructure deployment. I commend you, and our industry is thrilled with the leadership of this committee. Most notably, section 6409(a) of the Spectrum Act of 2012 has had a real impact on the ground in speeding the deployment of 4G infrastructure. It eliminated major local regulatory barriers to upgrading existing wireless infrastructure, and the FCC, I might add, has done an outstanding job on a bipartisan basis of implementing that law with a clear framework of rules.    Now, we will face major challenges. Cisco projects that demand for wireless data is going to increase by about 700 percent over the next 5 years, and the question is how we are going to meet that exploding demand for data.    Now, one way is more spectrum, as much as we can get as fast as we can get it. And again, this committee has done great work on that front. Spectrum, as you know, is expensive, scarce, and takes a long time to get into actual use by consumer, all the more reason to move quickly.    Another way to increase data throughput is technological advances that foster greater spectral efficiencies like moving from 2G to 4G and beyond, and the networks themselves are getting smarter, directing capacity where it is needed. These advances also take time to develop and to implement.    A third way to meet the exploding demand for data is through the rapid deployment of infrastructure. Wireless infrastructure driven by private capital addresses the wireless data crunch as soon as it is deployed. Solutions range from traditional tall towers that provide wide coverage and capacity to small cells and distributed antenna systems that fill gaps in capacity and target high-traffic areas, intensifications of networks reused as existing scarce spectrum. Deploying more antennas closer to end users allows carriers to squeeze more out of existing spectrum.    Now, there is still resistance to siting this equipment where it is necessary, and Congress can help even more to remove these barriers. One way is by streamlining the process of siting wireless infrastructure on Federal lands. Despite the law enacted by Congress with the leadership of this committee and an Executive Order by the President, significant challenges remain on Federal property. Further legislation is needed to facilitate access to Federal lands to expand broadband coverage and increased deployment in rural areas.    PCIA supports S. 1618, which was recently introduced in the Senate to address this issue, and we look forward to continuing to work with this committee on developing legislation as well. Additional roadblocks remain despite the assistance this committee has provided. For example, some State and local entities require proof of need before authorizing infrastructure bills. These requirements are both illogical and costly. Local communities shouldn't be in the CTO business of deciding where services are needed. Our members invest their capital where it is needed to serve consumers and local governments aren't in a good position to be second-guessing these kind of technical questions. Continued efforts to harmonize the rates for pole attachments would also help promote broadband investment.    The FCC has taken important steps to provide greater access, timing, and fair rates. States that regulate their own poles should follow the FCC's lead.    In sum, wireless infrastructure boosts every sector of the economy. Mobile broadband is demonstrating its effectiveness in promoting economic growth, job creation, and global competitiveness yet challenges remain in reaching its full potential. Policymakers from Congress to local governments need to eliminate regulatory barriers so our industry can invest their capital without resistance and not add costs and delays that will slow the rollout of wireless broadband.    Our member companies are very grateful for the bipartisan recognition of the centrality of wireless infrastructure by this committee, by Congress, by the administration, and by the     I would add that we look forward to making continued progress together on some of the ideas we have laid out here today and other panels will share, and we thank you, and thank you, Ranking Member Eshoo, for joining us, and thank you for holding this hearing to address these urgent issues.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Mr. Adelstein. We appreciate your testimony and look forward to further discussions on these matters.    We will now go to the Honorable Stephen Roe Lewis, Governor, Gila River Indian Community in Arizona. Governor, we are delighted to have you here. I enjoyed the time I was in your community and toured your facilities, and we are glad you could be here to share your thoughts on the challenges you face.</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lewis. Thank you, Chairman Walden and members of the committee. Thank you for the opportunity to testify on behalf of the Gila River Indian Community. I also want to again thank Chairman Walden and Mr. Lujan for visiting the community, as you just heard, to see firsthand the obstacles that tribes face in deploying broadband. And I want to thank Ranking Member Eshoo and Mr. Lujan for their request to have the Government Accounting Office, the GAO, look into the challenges and barriers to deployment on tribal lands.    Our broadband provider is Gila River Telecommunications Incorporated, which we refer to as GRTI. It was founded in 1988 and is wholly owned by our community. Our reservation is approximately 372,000 acres. We have more than 20,000 members and almost 12,000 community members living on our reservation. When we first purchased the exchange from Mountain Bell in 1988, only 10 percent of our residents had access to basic phone service. More, those looking to get connected had to pay tens of thousands of dollars before Mountain Bell would install a party line connection.    Today, GRTI offers phone service to 100 percent of our residents, and 84 percent of the residents subscribe. We also offer broadband service across the reservation. We are very proud of GRTI's success.    GRTI along with the National Tribal Telecommunications Association work together to raise awareness about the unique challenges for deploying broadband on tribal lands. Tribal lands are the least served areas in the country. Approximately 48 percent of tribal lands in the lower 48 States lack access to speeds of 10 down, one up, and 68 percent lack access to 25 down, 3 up.    There are a number of obstacles that present challenges to broadband deployment on tribal lands, and I have set those out with more detail in my written testimony, but I would like to summarize them for you here.    First, population density is an obstacle. The Gila River, for example, is at 20 persons per square mile. Maricopa County, which is adjacent to the reservation, has approximately 414 persons per square mile. Rugged terrain, characterized by mountains and hard soil, is also typical of tribal lands. Low median income and high rates of poverty on most reservations present a severe challenge for the delivery of broadband. The median income on our reservation is $24,000 to $59,000 in Arizona. Approximately 48 percent of the persons living on the reservation live below the poverty level compared to 15 percent for Arizona. These economic circumstances are not unique to our tribal community.    Failed Federal policies from the past continue to negatively impact many tribes. Our community and others like it continue to struggle with the failed policy of allotment. Because of the allotment policy, obtaining rights-of-way in order to deploy broadband is complex and raises costs substantially and delays deployment.    Finally, access to capital is a barrier. Tribal lands cannot be leveraged as collateral for securing loans because they are held in trust by the United States for the benefit of the tribe. Thus, private capital is often not available, meaning the only lender available is the Federal Government, specifically, the Rural Utilities Service. RUS loans were critical to GRTI when it took over its service area and remains critical as a Warms Springs tribe in Oregon can attest.    The combination of these challenges has resulted in GRTI's average cost per loop being over $2,873. Because tribal nations face many unique challenges, we often need unique solutions. Having tribes at the table and engaging in Government-to-Government consultation is critical. Too often, Federal policies have unintended consequences on tribes because we weren't properly consulted in the beginning.    The current effort to reform the Universal Service Fund is a good example. USF is, when properly scoped, a critically important source of funding that can help make it possible to deploy broadband to our reservations.    Tribes have offered a proposal that will target specific support to tribal lands through a Tribal Broadband Factor that could be added to proposals for a standalone broadband fund. Inclusion of this Tribal Broadband Factor would promote the targeted use of Universal Service Funding to advance the policy objective of ensuring that broadband is made available to all Americans including those living on tribal lands.    The FCC's Office of Native American Affairs and Policy has been a welcome addition to the Commission's outreach efforts to ensure that tribes are included in the development of proposals to deploy more broadband but sometimes the FCC forgets about tribes. That is why we appreciate the letter sent to the FCC from a broadband group of members of this committee, reminding the commission that tribal leaders need a seat at the table.    I appreciate the opportunity to speak with you today and hope to be an ongoing resource for the committee. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Governor. You can count on that. We appreciate your testimony and your insights. They are very valuable.    We will go now to Craig Moffett, Senior Research Analyst, Moffett Nathanson. Mr. Moffett, we are delighted to have you here as well. Please go ahead.</t>
   </si>
   <si>
+    <t>Moffett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moffett. Thank you, members of the subcommittee, for your kind invitation to participate in today's hearing.    By way of introduction, I have been a financial analyst focusing on the cable and telecommunications industries for the past 14 years. Before that, I spent 11 years at the Boston Consulting Group advising telecommunications companies, so this is now my 25th year in the sector, and I have spent much of that career focused on issues of broadband deployment and microeconomics.    With that in mind, I thought I would share some general observations today about the economics of broadband, particularly focusing on the economics of competitive broadband.    First, I would start by saying the obvious. Infrastructure deployment requires the expectation of a healthy return on capital. That should be taken as a given but all too often in my experience, the issue of return on capital is either ignored or misunderstood in policy forums. It is not a matter of whether a business is or isn't profitable; it is instead a matter of whether a business is sufficiently profitable to warrant the high levels of capital investment required for the deployment of infrastructure.    With that in mind, in 2014, the largest companies in the cable industry earned a very healthy return. The physical assets of Comcast, Time Warner Cable, Charter, and Cablevision, the four publicly traded U.S. cable operators during 2014, all earned healthy returns in excess of their cost of capital with returns ranging from 13 to 33 percent. Those returns are unusually high for a capital-intensive industry. On the other hand, it should be noted that the cable industry earned returns below the cost of capital for decades. Any long-term return on network infrastructure has to earn returns well in excess of the cost of capital during the maturity of that network to offset what were typically years or even decades of losses.    By contrast, large incumbent telephone companies do not earn attractive returns on their wireline businesses. For example, a decade after first undertaking their FiOS fiber to the home buildout to 18 million homes, Verizon has not yet come close to earning a return in excess of their cost of capital. In 2014, their aggregate wired infrastructure business earned a paltry 1.2 percent return against a cost of capital of 5 percent. For the nonfinancial types in the room, that is the equivalent of borrowing money at 5 percent interest in order to earn 1 percent interest. That is a good way to go bankrupt. No one would undertake to replicate those disastrous financial returns.    AT&amp;T, which at around the same time began deploying a much less robust and therefore less costly fiber to the node network has also earned poor returns. Their ROIC, or return on invested capital, has been declining for a decade and is like Verizon well below the cost of capital. AT&amp;T is committed to the FCC to make fiber available to a total of, I know believe it is 12 \\1/2\\ million homes as of what was reported last night to their footprint in order to make their acquisition of DIRECTV more palpable to policymakers, but it is hard to be optimistic that they will do much better this time around.    That said, there have been some changes in the market that make deployment of competitive broadband networks less unattractive than they have been in the past. Corning has developed bendable fiber that has helped lower the labor cost of deployment. Google has popularized the concept of demand aggregation whereby communities pledge to subscribe to advanced network services before the network is built so that Google can target areas where the company has the best chance of earning an acceptable return, and while some critics would call that redlining as it typically means that broadband won't be built to the lower-income communities, it has been successful in boosting overall project returns, and you can think of it as a way of ensuring that all the children in the class really are above average.    Still, the broader takeaway here is that the returns to be had from overbuilding, that is, being the second or third broadband provider in a given market are generally poor.    So let that sink in for a moment. Simply stated, it means that market forces are unlikely to yield a fully competitive broadband market. Neither, by the way, does wireless appear to offer the promise of imminent competition for incumbent wired broadband providers. Wireless networks simply aren't engineered for the kind of sustained throughout required for wired broadband replacement services. And wireless networks, by the way, also generally earn relatively poor returns on capital. Returns for Verizon and AT&amp;T are middling, and for Sprint and T-Mobile are very poor as a consequence of aggressive price competition in the wireless market. Neither is satellite broadband a compelling replacement for wired broadband in any but the most rural areas. Costs are high, and it is the nature of satellite connection that it has to travel 22,000 miles and back such that latency is going to be a problem.    So the simple economic reality is that overbuilding is necessarily going to be somewhat limited, given relatively poor financial returns that can be expected, and that alternatives are far and few between. That naturally gives rise to the impulse among some to regulate incumbent networks that are already there. That is, it is a not unreasonable assumption that any attempts to foster competition will ultimately be unsuccessful and that regulation of incumbents, in this case, the cable operators, is therefore required.    The counterargument, that regulation will only stifle investment among incumbent providers and will therefore make the problem worse and will in the process generate unwelcome, unintended consequences is equally well intentioned and unfortunately is equally well supported by the historical evidence. That is to say there are no easy answers here.    I will conclude only by adding a few additional observations about the cable industry. As everyone understands, the cable video business is facing unprecedented pressure. Cord-cutting has been talked about for years but is finally starting to show up in a meaningful way in the numbers, and soaring programming costs are eating away at video profit margins. From a cable operator's perspective, the video business and the broadband business are opposite sides of the same coin. It is, after all, all one infrastructure. Pressure on the video profit pool will therefore naturally trigger a pricing response in broadband where cable operators have cable leverage. That may sound nefarious but it's not intended to be so. It is simply an observation that cable operators have historically benefited from the fact that their infrastructure can support two separate businesses and each can be delivered at a lower cost than if that were not the case. The ACA, or American Cable Association, has made this case eloquently in arguing that absent reforms to restrain runaway programming cost growth, video will be unprofitable and broadband will be left to carry the entire burden of incremental deployment. All else being equal, that will mean that even new builds of broadband will become increasingly economically challenged and therefore will become less and less likely, or as I am quick to add, this is my own editorial rather than ACA's point, they will simply have to sharply raise the price of broadband. As an analyst, I would simply observe that the pressures in the video business are relatively broad-based and are attributable to more than just programming cost inflation and that this may therefore be an unavoidable scenario.    So I will leave my remarks there. If my remarks sound excessively gloomy, they are not meant to. The U.S. broadband infrastructure is the envy of the world notwithstanding my view that there are politicized and cherry-picked statistics that would suggest otherwise. It is simply the case that broadband is an infrastructure that is very difficult to support two of, and in some cases even one of, and I would submit that a clear-eyed acknowledgement of the microeconomics of the broadband business deserves or even demands a seat at the policy table.    So thank you, Mr. Chairman and subcommittee members, for your time and the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you very much, Mr. Moffett. We appreciate your analysis.    We will go now to Michael Slinger, Director, Google Fiber Cities. We welcome you. Thank you for being here, and the floor is yours.</t>
   </si>
   <si>
+    <t>Slinger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Slinger. Chairman Walden, Ranking Member Eshoo, and members of the committee, thank you for the invitation to testify today about investment in broadband infrastructure. We believe a successful agenda for bandwidth abundance will benefit consumers, small businesses, and the economy.    My name is Michael Slinger, and I currently serve as the Director of Google Fiber City Teams. In this role, I oversee the operations, business strategy, and on-the-ground outreach to bring gigabit speeds to cities where we deploy Google Fiber across the United States.    We have long believed that the next chapter of the Internet would be built on gigabit speeds. A gig delivers enough bandwidth for everyone in the home or in a small business for all their devices, and we know fast connections unleash innovation and entrepreneurship. Think about it in these terms: if today we are riding a bike, having a gig means that we could be driving a racecar. It is just that much faster.    That is why we launched Google Fiber, which provides download and upload connections of up to 1,000 megabits per second. Our goal is to make the Web faster, more affordable, more relevant and more useful for everyone.    We launched the service 5 years ago, and today it is available in Kansas City, Kansas; Kansas City, Missouri; Austin, Texas; and Provo, Utah. In addition, we are in the process of building out our network in six other markets and we are exploring bringing it to another four on top of that.    In rolling out Google Fiber, we physically built a network from scratch--one street, one pole, one house at a time. This means reviewing infrastructure and working closely with cities to make sure we are ready to work together to design and build a brand-new network.    This experience has given us insight into barriers to deployment. I will outline some thoughts on policy changes that could reduce delays and barriers.    First, policymakers can ease gaining access to existing infrastructure. To construct high-speed networks, broadband providers need access to existing utility infrastructure such as poles, conduits on a consistent, cost-effective and timely basis. While the FCC has taken important steps to improve rules related to infrastructure access, our own experience in building new broadband networks demonstrates that more work needs to be done to reduce delays and barriers.    Second, policymakers can easy rights-of-way. The expense and complexity of obtaining access to public rights-of-way in some jurisdictions may increase the cost and slow the pace of broadband deployment. Policies that facilitate partnerships between different entities and companies that are doing local construction can be beneficial. We also see a lot of benefit in instituting ``dig once'' policies, which may involve the installation of an oversized conduit bank by any new network builder within the right-of-way.    Third, policymakers can help resolve the challenge of high rates for access to video programming. This would help smaller players in the business negotiate fair terms for access to popular broadcasts and cable content and make it easier to attract and retain subscribers for broadband networks.    Finally, I would be remiss if I failed to mention the importance of balanced spectrum policies that promote innovation in the wireless sector. Federal agencies should pursue a balanced approach to spectrum reallocation that allows for licensed and unlicensed commercial uses at a variety of frequencies.    I will note, as we think about deploying gigabit-speed networks, we need to keep in mind that about 30 percent of Americans still don't use the Internet at home. This means they are at a disadvantage when it comes to education, job opportunities, social and civic engagement, so one of our main priorities is building digital inclusion into our deployment plans from the beginning. We are guided by a couple of main principles: Make the Internet more affordable, make access a party of the community, and teach people how to get online.    Just last week, as part of the Connect Home Initiative announced by President Obama and HUD Secretary Castro, we committed to bringing our Google Fiber Internet service to residents in select affordable housing properties across our Fiber cities for zero dollars per month with no installation fee. We are also partnering with community organizations on computer labs and digital literacy programming. We are grateful for the partners we get to work with to get more people connected and for your attention to this important topic.    Thank you again for the invitation to speak at this hearing and to share our views on how we can remove barriers, give Americans more choices at higher speeds, and help reach the goal of nationwide broadband abundance.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walden. Thank you, Mr. Slinger. We appreciate your testimony.    And now we will go to final witness today, Deb Socia, Executive Director, Next Century Cities. We are delighted to have you here as well. Thank you, and please go ahead with your comments.</t>
   </si>
   <si>
+    <t>Socia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Socia. Good afternoon. Thank you for holding this hearing on such an important topic.    My name is Deb Socia, and I am the Executive Director of Next Century Cities, a bipartisan city-to-city collaborative formed just last October. We have already grown to over 100 member cities, all of whom are dedicated to ensuring access to fast, affordable and reliable broadband.    High-speed access is essential to America's economic future. It is as simple as that. What can be complicated is making it happen on the ground. Cities face a range of technical, economic and political challenges including obstacles at the State and Federal levels. More and more, providing for this critical need has emerged as a core responsibility for local governments. Many cities and towns from around the country are taking diverse and creative steps to secure their Internet future.    When it comes to providing access to high-quality Internet, everyone has a role to play. It is an issue that spans political party, an issue that crosses the urban-rural divide, and an issue that relies on many sectors of our society.    There is no single pathway to next-generation broadband network, and several of the most innovative solutions have emerged in unexpected places. The small towns of Ammon, Idaho, and Mount Vernon, Washington, have each developed a gigabit open access network. These local governments are directly involved in building the physical infrastructure and then leasing access to competing private providers. Just outside of Baltimore, Westminster, Maryland, has initiated a public-private partnership with Ting, a provider of fiber Internet service, and with the introduction of Google Fiber in Kansas City, residents there can now experience giga-level speeds at an affordable rate. Cities like Lafayette, Louisiana, and Chattanooga, Tennessee, have built their own networks and now have some of the fastest, most globally competitive access available.    Next Century Cities is dedicated to helping all communities achieve high-quality access regardless of the path they choose to pursue. Our membership represents an inclusive cross-section of America from small, rural communities such as Winthrop, Minnesota, to large, urban areas like L.A. and Boston.    What unites these mayors is a commitment to the imperative of broadband access for continued growth and an understanding that local governments are best situated to understand and provide for the needs of their residents. It is an exciting time, a time for creative local solutions to usher in a new generation of innovation as the Internet continues to transform all aspects of society.    Next Century cities recently developed a policy agenda showing how mu stakeholders can help communities develop the crucial infrastructure needed today. Consistent with our mission, this new resource provides guidance that will be useful to communities regardless of how they choose to pursue their broadband goals.    Part of the policy agenda looks at steps local and State government can use to ensure high-quality access. Locally, governments can institute ``dig-once'' policies that minimize disruption as well as take other steps to ensure their cities are fiber ready.    At the State level, the policy agenda addresses changes such as modernizing State regulations and making investments in the middle mile infrastructure. But we are here on Capitol Hill today, and I wanted to emphasize some recommendations we heard from mayors about steps the Federal Government could take to help empower local communities. First and foremost, Congress can encourage competitive local markets through national legislation and other avenues. In addition, you have the ability to provide a national platform for the issue of broadband as necessary infrastructure. Hearings such as this help to elevate this discussion and attract national attention to this critical issue.    And finally, the policy agenda discusses how Congress could better require information about available Internet access including speed of connection, price for consumers, and areas of operation for service providers.    As is clear from everything we have heard so far today, the need for fast, affordable and reliable broadband Internet access is undeniable. Innovative leaders in communities across the country recognize this urgent need and are developing the critical broadband infrastructure that will allow their residents and their cities to thrive. It is evident by the over 100 Next Century Cities I am speaking on behalf of today, communities that represent over 18 million Americans.    Thank you for providing this platform for communities to share their experiences and develop opportunities for collaboration with Federal policymakers. I look forward to working with members of this committee and your colleagues to ensure that communities across the country have the next-generation access that all Americans need and deserve.    Thank you.</t>
   </si>
   <si>
@@ -127,6 +151,12 @@
     <t>400124</t>
   </si>
   <si>
+    <t>Eshoo</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you, Mr. Chairman, first of all for having this hearing and for the high level of cooperation relative to witnesses and invitations. We appreciate it.    Jonathan, it is great to see you, former Commissioner at the FCC, and to everyone that accepted our invitation to be here today.    To Mr. Slinger and Ms. Socia, first of all, thank you for your important advocacy for the ``dig once'' policy. I wish that the Congress had passed it because I think that we would have more of that policy actually--excuse the expression--embedded in our Federal roadways, but how do you think, A, the Executive Order is working? I want to get my questions out first, OK, because the time is very brief, and if you think there are any additional steps that Congress should take to incent that deployment of conduit as part of the Federal highway projects and that system, which I don't know, right now it doesn't seem like the highway project system is going anywhere. It looks like it is being driven off the road in Congress. But anyway, here maybe we can concentrate on that.    Mr. Moffett, I listened very carefully to what you said, and I think it is really highly pessimistic. It was depressing to listen to your description of every last sector of the telecommunications marketplace, and my question to you would be, where do you see a bright spot?    To Governor Lewis, thank you for being here. You know, there was a report that just came in out of terms of broadband penetration in our country. We are 24th in the world. And I think that a good part of that number is a representation of Native Americans and reservations in our country. It is a shameful record. It is a shameful record. And I think if there is going to be something that moves up to the top of the list here in a bipartisan way is to see that we bring to the parts of the country where there are reservations that you get first-class service for first-class citizenship. You really do. I mean, for students to have to be driven by their parents 65 and 75 miles away to sit in the car in order to get some kind of connection to do their homework, I don't think any Member of Congress who is a parent here would ever put up with that. We shouldn't have that in our country. And I hope that Mr. Slinger and Governor Lewis will form a partnership and then come back and report to us. I would really like to have you meet and see what you can come up with because you both need each other and we need both of you.    To Ms. Socia, does Next Century Cities support having local municipal systems?</t>
   </si>
   <si>
@@ -160,6 +190,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. Thanks, Mr. Chairman, and thanks very much to our panel today. It is always a great discussion that we have in subcommittee.    Mr. Adelstein, if I could go back to some of the questions that the chairman was posing and also I think you said about the GSA dragging its feet in getting some of these things done, especially when we are talking about streamlining the process for providers to obtain the necessary permitting and other approvals needed to build on Federal lands and protected lands. Just out of curiosity, on average, how long does it take for a negotiation process with the Federal Government compared to the private industry? Any idea?</t>
   </si>
   <si>
@@ -223,6 +259,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to get one question in to Mr. Adelstein about infrastructure during disasters like Hurricane Sandy, but then I want to get a question in to Governor Lewis, so I am trying to split this up.    Three years ago, Hurricane Sandy devastated my district. The force of the storm knocked out some communication for days. Mr. Adelstein, you testified about all the wireless infrastructure that is being deployed and upgraded across the country, and I support all this deployment, but my constituents are also concerned about whether the equipment works in a disaster.    So what is your industry doing to make sure people can call for help and reach loved ones in an emergency, and what do you think of the FCC's work to improve resiliency?</t>
   </si>
   <si>
@@ -268,6 +310,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman. It is a great panel. I appreciate you all being here.    I want to go to Adelstein, Commissioner, and Governor Lewis real quick to highlight the challenges because especially the environmental review process, especially on Federal lands, is a burden. So have you thought through how local municipalities and they do their zoning outside of Federal lands and how we could marry that with which goes on there and can you comment on that?</t>
   </si>
   <si>
@@ -319,6 +367,12 @@
     <t>400114</t>
   </si>
   <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman. Thank you for this excellent hearing and this excellent panel.    Jonathan, welcome back.</t>
   </si>
   <si>
@@ -361,6 +415,12 @@
     <t>412261</t>
   </si>
   <si>
+    <t>Scalise</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scalise. Thank you, Mr. Chairman. I appreciate you having this hearing.    Mr. Adelstein, I know you talked in your opening statement about a lot of the work that has been done to expand spectrum, of course, a lot of that within this committee where we have come together to make more spectrum available. I know the chairman has been a great leader in that effort too.    One part of that equation absolutely is expanding more spectrum, and then of course, the other part of that is your members--where you all come to actually build it out and to build that infrastructure to take advantage of the new spectrum. If you could maybe share with us some of the challenges or hurdles that your members face to make the investment that they need to make to take advantage of that spectrum and hopefully even make more spectrum available in the marketplace?</t>
   </si>
   <si>
@@ -410,6 +470,12 @@
   </si>
   <si>
     <t>400663</t>
+  </si>
+  <si>
+    <t>Matsui</t>
+  </si>
+  <si>
+    <t>Doris</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Matsui. Yes, just a minute or two.</t>
@@ -779,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,2861 +875,3365 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G81" t="s">
+        <v>98</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>117</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G89" t="s">
+        <v>117</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G96" t="s">
+        <v>117</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>133</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>133</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G108" t="s">
+        <v>133</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G110" t="s">
+        <v>133</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G114" t="s">
+        <v>152</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G116" t="s">
+        <v>152</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G118" t="s">
+        <v>152</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98122.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400419</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Walden</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>400124</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Eshoo</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Latta</t>
   </si>
   <si>
@@ -259,6 +271,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
   </si>
   <si>
     <t>400373</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Shimkus</t>
@@ -845,7 +863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,3362 +896,3628 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G87" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G89" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G108" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G110" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G116" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G118" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
